--- a/project-A/風水評価の説明/風水評価テキストその２.xlsx
+++ b/project-A/風水評価の説明/風水評価テキストその２.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>風水評価テキストその２</t>
     <rPh sb="0" eb="2">
@@ -2165,6 +2165,117 @@
     </rPh>
     <rPh sb="40" eb="41">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花，光，香り</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花を飾ると恋愛運アップにつながります．光，香りも恋愛運アップにつながります(他の運気も?)</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人の方角である北西は仕事部屋と相性が良いです．主人の格が上がり仕事運アップにつながります．</t>
+    <rPh sb="0" eb="2">
+      <t>シュジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ベヤ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュジン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北西に仕事部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベヤ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2499,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2974,6 +3085,28 @@
         <v>93</v>
       </c>
     </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水評価テキストその２.xlsx
+++ b/project-A/風水評価の説明/風水評価テキストその２.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>風水評価テキストその２</t>
     <rPh sb="0" eb="2">
@@ -2276,6 +2276,141 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ベヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関マットない</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄関マットは外から持ってきた悪い気を払う効果があります．玄関には玄関マットをかならず敷くようにしましょう</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香りに関するアイテムなし</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気なし(ライトなし)</t>
+  </si>
+  <si>
+    <t>良い運気はよい香りを好みます．玄関に良い香りのするアイテムをおくことで外からどんどん良い運気が入り込んでくることでしょう．</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>良い運気は明るい空間を好みます．逆に暗い空間では陰気が非常にたまりやすくなってしまうのです．</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2610,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3107,6 +3242,36 @@
         <v>97</v>
       </c>
     </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
